--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:28:10+00:00</t>
+    <t>2024-01-15T07:37:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:37:18+00:00</t>
+    <t>2024-01-26T15:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T15:06:50+00:00</t>
+    <t>2024-01-26T15:38:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T15:38:21+00:00</t>
+    <t>2024-01-30T10:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T10:55:06+00:00</t>
+    <t>2024-01-31T09:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T09:31:56+00:00</t>
+    <t>2024-01-31T10:03:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T10:03:24+00:00</t>
+    <t>2024-02-05T14:26:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/203-ajout-cas-usage-saisie-offre/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:26:50+00:00</t>
+    <t>2024-02-07T08:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
